--- a/utils/asset_errors.xlsx
+++ b/utils/asset_errors.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -428,16 +428,19 @@
       <c r="H1" t="str">
         <v>createdAt</v>
       </c>
+      <c r="I1" t="str">
+        <v>__v</v>
+      </c>
     </row>
     <row r="2">
       <c r="B2" t="str">
-        <v>ac0c5b29-b89c-409c-a1a5-5f31feb27a01</v>
+        <v>34e09bd6-9970-4065-b480-196630243816</v>
       </c>
       <c r="C2" t="str">
-        <v/>
+        <v>69861c11aa3c7e47baf521f2</v>
       </c>
       <c r="D2" t="str">
-        <v>No download link or no permission (403)</v>
+        <v>Skipped asset</v>
       </c>
       <c r="E2" t="str">
         <v/>
@@ -446,130 +449,70 @@
         <v>skipped</v>
       </c>
       <c r="G2" t="str">
-        <v>2.3 MB</v>
+        <v>0</v>
       </c>
       <c r="H2" s="1">
-        <v>46042.65480324074</v>
+        <v>46059.93169670139</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="str">
-        <v>b91fd823-1a22-4c8a-9e3b-77c5fbc81234</v>
+        <v>34e09bd6-9970-4065-b480-196630243816</v>
       </c>
       <c r="C3" t="str">
+        <v>69861c9ae87a11ec67a114e7</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Skipped asset</v>
+      </c>
+      <c r="E3" t="str">
         <v/>
-      </c>
-      <c r="D3" t="str">
-        <v>Asset status is false</v>
-      </c>
-      <c r="E3" t="str">
-        <v>Expanded status explicitly denied</v>
       </c>
       <c r="F3" t="str">
         <v>skipped</v>
       </c>
       <c r="G3" t="str">
-        <v>1.1 MB</v>
+        <v>0</v>
       </c>
       <c r="H3" s="1">
-        <v>46042.65638888889</v>
+        <v>46059.93328990741</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="str">
-        <v>c72e9a11-5f44-4d92-b8b0-21e7c91ab567</v>
+        <v>34e09bd6-9970-4065-b480-196630243816</v>
       </c>
       <c r="C4" t="str">
+        <v>69861cbfbfe7956a74cc920f</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Skipped asset</v>
+      </c>
+      <c r="E4" t="str">
         <v/>
-      </c>
-      <c r="D4" t="str">
-        <v>ZIP files are not allowed</v>
-      </c>
-      <c r="E4" t="str">
-        <v>Filename ends with .zip</v>
       </c>
       <c r="F4" t="str">
         <v>skipped</v>
       </c>
       <c r="G4" t="str">
-        <v>14.8 MB</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1">
-        <v>46042.65880787037</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" t="str">
-        <v>d10a7c8e-9c2f-4d6b-8c9a-0f4eac998111</v>
-      </c>
-      <c r="C5" t="str">
-        <v/>
-      </c>
-      <c r="D5" t="str">
-        <v>No download link</v>
-      </c>
-      <c r="E5" t="str">
-        <v>Asset missing _links.download</v>
-      </c>
-      <c r="F5" t="str">
-        <v>skipped</v>
-      </c>
-      <c r="G5" t="str">
-        <v/>
-      </c>
-      <c r="H5" s="1">
-        <v>46042.66063657407</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" t="str">
-        <v>e88b3c92-72d9-4fbe-9d44-2e1a9cdd4567</v>
-      </c>
-      <c r="C6" t="str">
-        <v/>
-      </c>
-      <c r="D6" t="str">
-        <v>Permission denied</v>
-      </c>
-      <c r="E6" t="str">
-        <v>403 error while accessing download URL</v>
-      </c>
-      <c r="F6" t="str">
-        <v>failed</v>
-      </c>
-      <c r="G6" t="str">
-        <v>5.6 MB</v>
-      </c>
-      <c r="H6" s="1">
-        <v>46042.66385416667</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" t="str">
-        <v>f55d9a3b-1e2a-4a9c-bb88-98c5a4ef9012</v>
-      </c>
-      <c r="C7" t="str">
-        <v/>
-      </c>
-      <c r="D7" t="str">
-        <v>Unsupported file type</v>
-      </c>
-      <c r="E7" t="str">
-        <v>Executable files are not allowed</v>
-      </c>
-      <c r="F7" t="str">
-        <v>skipped</v>
-      </c>
-      <c r="G7" t="str">
-        <v>9.2 MB</v>
-      </c>
-      <c r="H7" s="1">
-        <v>46042.666921296295</v>
+        <v>46059.93371438657</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I4"/>
   </ignoredErrors>
 </worksheet>
 </file>